--- a/4-waardelijsten/IMKL-Waardelijsten-3.0rc-extern.xlsx
+++ b/4-waardelijsten/IMKL-Waardelijsten-3.0rc-extern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl-werkomgeving\4-waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73979A5E-7C2D-48E7-8061-BDE4E74500F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB323019-307D-4F11-B7E4-CCB97C44E39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8010" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27225" yWindow="-7125" windowWidth="22350" windowHeight="14550" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -3790,7 +3790,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3887,10 +3887,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
@@ -4822,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E6BF3-2E3C-4A42-96BA-2109A771B036}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4989,13 +4985,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>1137</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>1137</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5278,10 +5274,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J498"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6924,7 +6920,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>85</v>
       </c>
@@ -6941,7 +6937,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>85</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>85</v>
       </c>
@@ -6975,140 +6971,181 @@
         <v>765</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B100" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="24" t="s">
+      <c r="B100" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32" t="s">
         <v>1138</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E100" s="32" t="s">
         <v>1129</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B101" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="24" t="s">
+      <c r="B101" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32" t="s">
         <v>1139</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="32" t="s">
         <v>1130</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="s">
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B102" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="24" t="s">
+      <c r="B102" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32" t="s">
         <v>1140</v>
       </c>
-      <c r="E102" s="24" t="s">
+      <c r="E102" s="32" t="s">
         <v>1131</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B103" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="24" t="s">
+      <c r="B103" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32" t="s">
         <v>1141</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="E103" s="32" t="s">
         <v>1132</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="24" t="s">
+      <c r="B104" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32" t="s">
         <v>1142</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="E104" s="32" t="s">
         <v>1136</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="24" t="s">
+      <c r="B105" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32" t="s">
         <v>1143</v>
       </c>
-      <c r="E105" s="24" t="s">
+      <c r="E105" s="32" t="s">
         <v>1133</v>
       </c>
-      <c r="H105" s="24" t="s">
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="24" t="s">
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="24" t="s">
+      <c r="B106" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32" t="s">
         <v>1144</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="32" t="s">
         <v>1134</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="B107" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="24" t="s">
+      <c r="B107" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32" t="s">
         <v>1135</v>
       </c>
-      <c r="H107" s="24" t="s">
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>79</v>
       </c>
@@ -7125,7 +7162,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>79</v>
       </c>
@@ -7142,7 +7179,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>79</v>
       </c>
@@ -7159,7 +7196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>79</v>
       </c>
@@ -7176,7 +7213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>84</v>
       </c>
@@ -8933,7 +8970,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="24" t="s">
         <v>519</v>
       </c>
@@ -10679,10 +10716,10 @@
       <c r="B320" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D320" s="42" t="s">
+      <c r="D320" s="36" t="s">
         <v>1120</v>
       </c>
-      <c r="E320" s="42" t="s">
+      <c r="E320" s="36" t="s">
         <v>1118</v>
       </c>
       <c r="H320" s="35" t="s">
@@ -12378,7 +12415,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" s="24" t="s">
         <v>87</v>
       </c>
@@ -14463,7 +14500,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
